--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B60083-DA0C-4DBB-89F4-C6EAA654E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB891A2-E2F1-4CC7-A2E4-EBA64E925806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="307">
   <si>
     <t>Kategori1</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>P2,P3,P4,2P3,2P4</t>
+  </si>
+  <si>
+    <t>Decimals</t>
   </si>
 </sst>
 </file>
@@ -2704,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2725,7 @@
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2765,11 +2768,14 @@
       <c r="N1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2973,7 +2979,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3024,8 +3030,11 @@
       <c r="O12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
